--- a/EssilorLuxottica Projects/LUX - 06 - Retrieve Vendor Statements From SAP/Data/Config.xlsx
+++ b/EssilorLuxottica Projects/LUX - 06 - Retrieve Vendor Statements From SAP/Data/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\LRRBTUIPFSP100\Profiles\Uipath_26\Desktop\EssilorLuxottica Projects\LUX-06_Vendor Statement Reconciliation\LUX - 06 - Retrieve Vendor Statements From SAP\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F650D464-7767-4FE1-B8D7-F378D58CB664}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{080D571A-BDE6-41A4-A315-AD514CD8FDA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -640,7 +640,7 @@
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
